--- a/Data/SA FA Grants Data Tables.xlsx
+++ b/Data/SA FA Grants Data Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\fa_grants\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C333E3-80A2-4D8E-B9F0-A55E9A9993F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A3ADA7-4D9E-477D-8CFE-4CDE6A6D7CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28470" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{DF8FEA54-7424-4ED5-A065-07E06B676E46}"/>
+    <workbookView xWindow="-450" yWindow="-16440" windowWidth="29280" windowHeight="15960" activeTab="5" xr2:uid="{DF8FEA54-7424-4ED5-A065-07E06B676E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Part 3" sheetId="17" r:id="rId3"/>
     <sheet name="Compiled" sheetId="18" r:id="rId4"/>
     <sheet name="2023-24" sheetId="20" r:id="rId5"/>
+    <sheet name="Reg" sheetId="21" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">'2023-24'!$A$1:$E$69</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="108">
   <si>
     <t>Kangaroo Island</t>
   </si>
@@ -357,6 +358,45 @@
   <si>
     <t>Port Adelaide Enfield</t>
   </si>
+  <si>
+    <t>Deficit</t>
+  </si>
+  <si>
+    <t>Minimum Grant (PC basis)</t>
+  </si>
+  <si>
+    <t>Raw Allocation</t>
+  </si>
+  <si>
+    <t>MGC</t>
+  </si>
+  <si>
+    <t>New Grant</t>
+  </si>
+  <si>
+    <t>2023 - 2024</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Grant Adjusted </t>
+  </si>
+  <si>
+    <t>New Grant Per Capita</t>
+  </si>
+  <si>
+    <t>Change %</t>
+  </si>
+  <si>
+    <t>Change from prev year</t>
+  </si>
+  <si>
+    <t>Per Capita Change</t>
+  </si>
+  <si>
+    <t>YoY Change Flag</t>
+  </si>
 </sst>
 </file>
 
@@ -391,11 +431,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6950,7 +6989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4162001-9363-42EB-BEFB-AD38F1FA5498}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -6981,7 +7020,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2">
@@ -6998,7 +7037,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3">
@@ -7015,7 +7054,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4">
@@ -7032,7 +7071,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5">
@@ -7049,7 +7088,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6">
@@ -7066,7 +7105,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7">
@@ -7083,7 +7122,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8">
@@ -7100,7 +7139,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9">
@@ -7117,7 +7156,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10">
@@ -7134,7 +7173,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11">
@@ -7151,7 +7190,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12">
@@ -7168,7 +7207,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>88</v>
       </c>
       <c r="B13">
@@ -7185,7 +7224,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
       <c r="B14">
@@ -7202,7 +7241,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
       <c r="B15">
@@ -7219,7 +7258,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16">
@@ -7236,7 +7275,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17">
@@ -7253,7 +7292,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
       <c r="B18">
@@ -7270,7 +7309,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>54</v>
       </c>
       <c r="B19">
@@ -7287,7 +7326,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>55</v>
       </c>
       <c r="B20">
@@ -7304,7 +7343,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21">
@@ -7321,7 +7360,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>57</v>
       </c>
       <c r="B22">
@@ -7338,7 +7377,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
       <c r="B23">
@@ -7355,7 +7394,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24">
@@ -7372,7 +7411,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25">
@@ -7389,7 +7428,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>89</v>
       </c>
       <c r="B26">
@@ -7406,7 +7445,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
@@ -7423,7 +7462,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28">
@@ -7440,7 +7479,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29">
@@ -7457,7 +7496,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>90</v>
       </c>
       <c r="B30">
@@ -7474,7 +7513,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31">
@@ -7491,7 +7530,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32">
@@ -7508,7 +7547,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33">
@@ -7525,7 +7564,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34">
@@ -7542,7 +7581,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35">
@@ -7559,7 +7598,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36">
@@ -7576,7 +7615,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>91</v>
       </c>
       <c r="B37">
@@ -7593,7 +7632,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38">
@@ -7610,7 +7649,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>92</v>
       </c>
       <c r="B39">
@@ -7627,7 +7666,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>15</v>
       </c>
       <c r="B40">
@@ -7644,7 +7683,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>93</v>
       </c>
       <c r="B41">
@@ -7661,7 +7700,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>17</v>
       </c>
       <c r="B42">
@@ -7678,7 +7717,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>18</v>
       </c>
       <c r="B43">
@@ -7695,7 +7734,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>19</v>
       </c>
       <c r="B44">
@@ -7712,7 +7751,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>20</v>
       </c>
       <c r="B45">
@@ -7729,7 +7768,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
       <c r="B46">
@@ -7746,7 +7785,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>22</v>
       </c>
       <c r="B47">
@@ -7763,7 +7802,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
         <v>62</v>
       </c>
       <c r="B48">
@@ -7780,7 +7819,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3" t="s">
+      <c r="A49" t="s">
         <v>63</v>
       </c>
       <c r="B49">
@@ -7797,7 +7836,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3" t="s">
+      <c r="A50" t="s">
         <v>64</v>
       </c>
       <c r="B50">
@@ -7814,7 +7853,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
+      <c r="A51" t="s">
         <v>65</v>
       </c>
       <c r="B51">
@@ -7831,7 +7870,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
         <v>66</v>
       </c>
       <c r="B52">
@@ -7848,7 +7887,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>67</v>
       </c>
       <c r="B53">
@@ -7865,7 +7904,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
+      <c r="A54" t="s">
         <v>68</v>
       </c>
       <c r="B54">
@@ -7882,7 +7921,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>69</v>
       </c>
       <c r="B55">
@@ -7899,7 +7938,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>70</v>
       </c>
       <c r="B56">
@@ -7916,7 +7955,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>71</v>
       </c>
       <c r="B57">
@@ -7933,7 +7972,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>72</v>
       </c>
       <c r="B58">
@@ -7950,7 +7989,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>73</v>
       </c>
       <c r="B59">
@@ -7967,7 +8006,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
       <c r="B60">
@@ -7984,7 +8023,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3" t="s">
+      <c r="A61" t="s">
         <v>75</v>
       </c>
       <c r="B61">
@@ -8001,7 +8040,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3" t="s">
+      <c r="A62" t="s">
         <v>76</v>
       </c>
       <c r="B62">
@@ -8018,7 +8057,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3" t="s">
+      <c r="A63" t="s">
         <v>77</v>
       </c>
       <c r="B63">
@@ -8035,7 +8074,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3" t="s">
+      <c r="A64" t="s">
         <v>78</v>
       </c>
       <c r="B64">
@@ -8052,7 +8091,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>79</v>
       </c>
       <c r="B65">
@@ -8069,7 +8108,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="3" t="s">
+      <c r="A66" t="s">
         <v>80</v>
       </c>
       <c r="B66">
@@ -8086,7 +8125,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="3" t="s">
+      <c r="A67" t="s">
         <v>81</v>
       </c>
       <c r="B67">
@@ -8103,7 +8142,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="3" t="s">
+      <c r="A68" t="s">
         <v>82</v>
       </c>
       <c r="B68">
@@ -8120,7 +8159,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="3" t="s">
+      <c r="A69" t="s">
         <v>83</v>
       </c>
       <c r="B69">
@@ -8141,6 +8180,4506 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513BE251-40AD-4C2D-A83A-711D5845C9EE}">
+  <dimension ref="A1:U69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>27901</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>-71481892</v>
+      </c>
+      <c r="E2">
+        <v>710359</v>
+      </c>
+      <c r="F2">
+        <v>25.46</v>
+      </c>
+      <c r="G2">
+        <v>710359</v>
+      </c>
+      <c r="H2">
+        <v>25.46</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>710359.46000000008</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>710359.46000000008</v>
+      </c>
+      <c r="N2">
+        <v>654511</v>
+      </c>
+      <c r="O2">
+        <v>-0.46000000007916242</v>
+      </c>
+      <c r="P2">
+        <v>710359</v>
+      </c>
+      <c r="Q2">
+        <v>25.459983513135729</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>41842</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>-4454563</v>
+      </c>
+      <c r="E3">
+        <v>1065297</v>
+      </c>
+      <c r="F3">
+        <v>25.46</v>
+      </c>
+      <c r="G3">
+        <v>1065297</v>
+      </c>
+      <c r="H3">
+        <v>25.46</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1065297.32</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1065297.32</v>
+      </c>
+      <c r="N3">
+        <v>1038598</v>
+      </c>
+      <c r="O3">
+        <v>-0.32000000006519258</v>
+      </c>
+      <c r="P3">
+        <v>1065297</v>
+      </c>
+      <c r="Q3">
+        <v>25.459992352182017</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.57</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>10932</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>5052887</v>
+      </c>
+      <c r="E4">
+        <v>1892230</v>
+      </c>
+      <c r="F4">
+        <v>173.09</v>
+      </c>
+      <c r="G4">
+        <v>1717083</v>
+      </c>
+      <c r="H4">
+        <v>157.07</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>278328.72000000003</v>
+      </c>
+      <c r="K4">
+        <v>2227124.2583369231</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1921129.9760274417</v>
+      </c>
+      <c r="N4">
+        <v>1560985</v>
+      </c>
+      <c r="O4">
+        <v>-204046.97602744168</v>
+      </c>
+      <c r="P4">
+        <v>1717083</v>
+      </c>
+      <c r="Q4">
+        <v>157.06942919868277</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>-16.02</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>30323</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>5057998</v>
+      </c>
+      <c r="E5">
+        <v>1894144</v>
+      </c>
+      <c r="F5">
+        <v>62.47</v>
+      </c>
+      <c r="G5">
+        <v>1844007</v>
+      </c>
+      <c r="H5">
+        <v>60.81</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>772023.58000000007</v>
+      </c>
+      <c r="K5">
+        <v>2229376.9966396717</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1923073.2008229846</v>
+      </c>
+      <c r="N5">
+        <v>1819177</v>
+      </c>
+      <c r="O5">
+        <v>-79066.200822984567</v>
+      </c>
+      <c r="P5">
+        <v>1844007</v>
+      </c>
+      <c r="Q5">
+        <v>60.812155789334831</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.36</v>
+      </c>
+      <c r="T5">
+        <v>-1.66</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>26268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>6430573</v>
+      </c>
+      <c r="E6">
+        <v>2408153</v>
+      </c>
+      <c r="F6">
+        <v>91.68</v>
+      </c>
+      <c r="G6">
+        <v>1779006</v>
+      </c>
+      <c r="H6">
+        <v>67.73</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>668783.28</v>
+      </c>
+      <c r="K6">
+        <v>2834356.8980082958</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2444932.2839265382</v>
+      </c>
+      <c r="N6">
+        <v>1546962</v>
+      </c>
+      <c r="O6">
+        <v>-665926.28392653819</v>
+      </c>
+      <c r="P6">
+        <v>1779006</v>
+      </c>
+      <c r="Q6">
+        <v>67.725216994061213</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15</v>
+      </c>
+      <c r="T6">
+        <v>-23.95</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>2680</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>488998</v>
+      </c>
+      <c r="E7">
+        <v>183122</v>
+      </c>
+      <c r="F7">
+        <v>68.33</v>
+      </c>
+      <c r="G7">
+        <v>197800</v>
+      </c>
+      <c r="H7">
+        <v>73.81</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>68232.800000000003</v>
+      </c>
+      <c r="K7">
+        <v>215532.09246085235</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>185919.20144215907</v>
+      </c>
+      <c r="N7">
+        <v>197800</v>
+      </c>
+      <c r="O7">
+        <v>11880.798557840928</v>
+      </c>
+      <c r="P7">
+        <v>197800</v>
+      </c>
+      <c r="Q7">
+        <v>73.805970149253724</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>5.48</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>10730</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>7876569</v>
+      </c>
+      <c r="E8">
+        <v>2949657</v>
+      </c>
+      <c r="F8">
+        <v>274.89999999999998</v>
+      </c>
+      <c r="G8">
+        <v>2871580</v>
+      </c>
+      <c r="H8">
+        <v>267.62</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>273185.8</v>
+      </c>
+      <c r="K8">
+        <v>3471698.0396285527</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2994706.3558216305</v>
+      </c>
+      <c r="N8">
+        <v>2784617</v>
+      </c>
+      <c r="O8">
+        <v>-123126.35582163045</v>
+      </c>
+      <c r="P8">
+        <v>2871580</v>
+      </c>
+      <c r="Q8">
+        <v>267.62162162162161</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>3.12</v>
+      </c>
+      <c r="T8">
+        <v>-7.28</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>47444</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>-41901191</v>
+      </c>
+      <c r="E9">
+        <v>1207924</v>
+      </c>
+      <c r="F9">
+        <v>25.46</v>
+      </c>
+      <c r="G9">
+        <v>1207924</v>
+      </c>
+      <c r="H9">
+        <v>25.46</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1207924.24</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1207924.24</v>
+      </c>
+      <c r="N9">
+        <v>1170001</v>
+      </c>
+      <c r="O9">
+        <v>-0.23999999999068677</v>
+      </c>
+      <c r="P9">
+        <v>1207924</v>
+      </c>
+      <c r="Q9">
+        <v>25.459994941404602</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>3.24</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>57160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>-7485035</v>
+      </c>
+      <c r="E10">
+        <v>1455294</v>
+      </c>
+      <c r="F10">
+        <v>25.46</v>
+      </c>
+      <c r="G10">
+        <v>1455294</v>
+      </c>
+      <c r="H10">
+        <v>25.46</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1455293.6</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1455293.6</v>
+      </c>
+      <c r="N10">
+        <v>1403566</v>
+      </c>
+      <c r="O10">
+        <v>0.39999999990686774</v>
+      </c>
+      <c r="P10">
+        <v>1455294</v>
+      </c>
+      <c r="Q10">
+        <v>25.460006997900631</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>3.69</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>3717</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>6137073</v>
+      </c>
+      <c r="E11">
+        <v>2298242</v>
+      </c>
+      <c r="F11">
+        <v>618.30999999999995</v>
+      </c>
+      <c r="G11">
+        <v>2237408</v>
+      </c>
+      <c r="H11">
+        <v>601.94000000000005</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>94634.82</v>
+      </c>
+      <c r="K11">
+        <v>2704993.0373437116</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2333342.2863738411</v>
+      </c>
+      <c r="N11">
+        <v>2167559</v>
+      </c>
+      <c r="O11">
+        <v>-95934.286373841111</v>
+      </c>
+      <c r="P11">
+        <v>2237408</v>
+      </c>
+      <c r="Q11">
+        <v>601.93919827818138</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>3.22</v>
+      </c>
+      <c r="T11">
+        <v>-16.37</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>127440</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>-32695279</v>
+      </c>
+      <c r="E12">
+        <v>3244622</v>
+      </c>
+      <c r="F12">
+        <v>25.46</v>
+      </c>
+      <c r="G12">
+        <v>3244622</v>
+      </c>
+      <c r="H12">
+        <v>25.46</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3244622.4</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3244622.4</v>
+      </c>
+      <c r="N12">
+        <v>3129875</v>
+      </c>
+      <c r="O12">
+        <v>-0.39999999990686774</v>
+      </c>
+      <c r="P12">
+        <v>3244622</v>
+      </c>
+      <c r="Q12">
+        <v>25.459996861268049</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3.67</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>9405</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>4308988</v>
+      </c>
+      <c r="E13">
+        <v>1613651</v>
+      </c>
+      <c r="F13">
+        <v>171.57</v>
+      </c>
+      <c r="G13">
+        <v>1480609</v>
+      </c>
+      <c r="H13">
+        <v>157.43</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>239451.30000000002</v>
+      </c>
+      <c r="K13">
+        <v>1899241.3057491097</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1638296.287477344</v>
+      </c>
+      <c r="N13">
+        <v>1346008</v>
+      </c>
+      <c r="O13">
+        <v>-157687.28747734404</v>
+      </c>
+      <c r="P13">
+        <v>1480609</v>
+      </c>
+      <c r="Q13">
+        <v>157.42785752259437</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>-14.14</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <v>1757</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>3541341</v>
+      </c>
+      <c r="E14">
+        <v>1326179</v>
+      </c>
+      <c r="F14">
+        <v>754.8</v>
+      </c>
+      <c r="G14">
+        <v>1302898</v>
+      </c>
+      <c r="H14">
+        <v>741.55</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>44733.22</v>
+      </c>
+      <c r="K14">
+        <v>1560891.1198970287</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1346433.5043382123</v>
+      </c>
+      <c r="N14">
+        <v>1302898</v>
+      </c>
+      <c r="O14">
+        <v>-43535.504338212311</v>
+      </c>
+      <c r="P14">
+        <v>1302898</v>
+      </c>
+      <c r="Q14">
+        <v>741.54695503699486</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>-13.25</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>1550</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>2795941</v>
+      </c>
+      <c r="E15">
+        <v>1047038</v>
+      </c>
+      <c r="F15">
+        <v>675.51</v>
+      </c>
+      <c r="G15">
+        <v>1022486</v>
+      </c>
+      <c r="H15">
+        <v>659.67</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>39463</v>
+      </c>
+      <c r="K15">
+        <v>1232346.5824545047</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1063029.1289522487</v>
+      </c>
+      <c r="N15">
+        <v>1022486</v>
+      </c>
+      <c r="O15">
+        <v>-40543.12895224872</v>
+      </c>
+      <c r="P15">
+        <v>1022486</v>
+      </c>
+      <c r="Q15">
+        <v>659.66838709677415</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>-15.84</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>5612</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>5033347</v>
+      </c>
+      <c r="E16">
+        <v>1884913</v>
+      </c>
+      <c r="F16">
+        <v>335.87</v>
+      </c>
+      <c r="G16">
+        <v>2242735</v>
+      </c>
+      <c r="H16">
+        <v>399.63</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>142881.52000000002</v>
+      </c>
+      <c r="K16">
+        <v>2218511.7546320306</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1913700.7816418207</v>
+      </c>
+      <c r="N16">
+        <v>2312098</v>
+      </c>
+      <c r="O16">
+        <v>329034.21835817932</v>
+      </c>
+      <c r="P16">
+        <v>2242735</v>
+      </c>
+      <c r="Q16">
+        <v>399.63203848895222</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>-3</v>
+      </c>
+      <c r="T16">
+        <v>63.76</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>15951</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>7930879</v>
+      </c>
+      <c r="E17">
+        <v>2969995</v>
+      </c>
+      <c r="F17">
+        <v>186.19</v>
+      </c>
+      <c r="G17">
+        <v>2514994</v>
+      </c>
+      <c r="H17">
+        <v>157.66999999999999</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>406112.46</v>
+      </c>
+      <c r="K17">
+        <v>3495635.863385601</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3015355.2579241414</v>
+      </c>
+      <c r="N17">
+        <v>2286358</v>
+      </c>
+      <c r="O17">
+        <v>-500361.25792414136</v>
+      </c>
+      <c r="P17">
+        <v>2514994</v>
+      </c>
+      <c r="Q17">
+        <v>157.66998934236099</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>-28.52</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>1041</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>2530281</v>
+      </c>
+      <c r="E18">
+        <v>947552</v>
+      </c>
+      <c r="F18">
+        <v>910.23</v>
+      </c>
+      <c r="G18">
+        <v>922471</v>
+      </c>
+      <c r="H18">
+        <v>886.14</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>26503.86</v>
+      </c>
+      <c r="K18">
+        <v>1115253.5561371169</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>962024.02247916709</v>
+      </c>
+      <c r="N18">
+        <v>893285</v>
+      </c>
+      <c r="O18">
+        <v>-39553.022479167092</v>
+      </c>
+      <c r="P18">
+        <v>922471</v>
+      </c>
+      <c r="Q18">
+        <v>886.13928914505289</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3.27</v>
+      </c>
+      <c r="T18">
+        <v>-24.09</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>1673</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>3695411</v>
+      </c>
+      <c r="E19">
+        <v>1383876</v>
+      </c>
+      <c r="F19">
+        <v>827.18</v>
+      </c>
+      <c r="G19">
+        <v>1360179</v>
+      </c>
+      <c r="H19">
+        <v>813.02</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>42594.58</v>
+      </c>
+      <c r="K19">
+        <v>1628799.4333981955</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1405011.5994760112</v>
+      </c>
+      <c r="N19">
+        <v>1360179</v>
+      </c>
+      <c r="O19">
+        <v>-44832.599476011237</v>
+      </c>
+      <c r="P19">
+        <v>1360179</v>
+      </c>
+      <c r="Q19">
+        <v>813.01793185893609</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>-14.16</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>1332</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>3263295</v>
+      </c>
+      <c r="E20">
+        <v>1222055</v>
+      </c>
+      <c r="F20">
+        <v>917.46</v>
+      </c>
+      <c r="G20">
+        <v>1189708</v>
+      </c>
+      <c r="H20">
+        <v>893.17</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>33912.720000000001</v>
+      </c>
+      <c r="K20">
+        <v>1438338.8064307768</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1240719.1859070805</v>
+      </c>
+      <c r="N20">
+        <v>1163763</v>
+      </c>
+      <c r="O20">
+        <v>-51011.185907080537</v>
+      </c>
+      <c r="P20">
+        <v>1189708</v>
+      </c>
+      <c r="Q20">
+        <v>893.17417417417414</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>2.23</v>
+      </c>
+      <c r="T20">
+        <v>-24.29</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>26789</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>7266229</v>
+      </c>
+      <c r="E21">
+        <v>2721094</v>
+      </c>
+      <c r="F21">
+        <v>101.58</v>
+      </c>
+      <c r="G21">
+        <v>2339929</v>
+      </c>
+      <c r="H21">
+        <v>87.35</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>682047.94000000006</v>
+      </c>
+      <c r="K21">
+        <v>3202682.916228137</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2762652.3895309553</v>
+      </c>
+      <c r="N21">
+        <v>2127208</v>
+      </c>
+      <c r="O21">
+        <v>-422723.38953095535</v>
+      </c>
+      <c r="P21">
+        <v>2339929</v>
+      </c>
+      <c r="Q21">
+        <v>87.346634812796296</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>-14.23</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>4132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>6379179</v>
+      </c>
+      <c r="E22">
+        <v>2388907</v>
+      </c>
+      <c r="F22">
+        <v>578.15</v>
+      </c>
+      <c r="G22">
+        <v>2524183</v>
+      </c>
+      <c r="H22">
+        <v>610.89</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>105200.72</v>
+      </c>
+      <c r="K22">
+        <v>2811704.3383660619</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2425392.0579155558</v>
+      </c>
+      <c r="N22">
+        <v>2524184</v>
+      </c>
+      <c r="O22">
+        <v>98790.942084444221</v>
+      </c>
+      <c r="P22">
+        <v>2524183</v>
+      </c>
+      <c r="Q22">
+        <v>610.88649564375601</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>32.74</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>9044</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>3813351</v>
+      </c>
+      <c r="E23">
+        <v>1428043</v>
+      </c>
+      <c r="F23">
+        <v>157.9</v>
+      </c>
+      <c r="G23">
+        <v>1733614</v>
+      </c>
+      <c r="H23">
+        <v>191.69</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>230260.24000000002</v>
+      </c>
+      <c r="K23">
+        <v>1680782.9895371427</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1449852.9088844103</v>
+      </c>
+      <c r="N23">
+        <v>1787231</v>
+      </c>
+      <c r="O23">
+        <v>283761.09111558972</v>
+      </c>
+      <c r="P23">
+        <v>1733614</v>
+      </c>
+      <c r="Q23">
+        <v>191.68664307828394</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>-3</v>
+      </c>
+      <c r="T23">
+        <v>33.79</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>38766</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>-25889261</v>
+      </c>
+      <c r="E24">
+        <v>986982</v>
+      </c>
+      <c r="F24">
+        <v>25.46</v>
+      </c>
+      <c r="G24">
+        <v>986982</v>
+      </c>
+      <c r="H24">
+        <v>25.46</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>986982.36</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>986982.36</v>
+      </c>
+      <c r="N24">
+        <v>953726</v>
+      </c>
+      <c r="O24">
+        <v>-0.35999999998603016</v>
+      </c>
+      <c r="P24">
+        <v>986982</v>
+      </c>
+      <c r="Q24">
+        <v>25.459990713511839</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>3.49</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>5125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>5308016</v>
+      </c>
+      <c r="E25">
+        <v>1987772</v>
+      </c>
+      <c r="F25">
+        <v>387.86</v>
+      </c>
+      <c r="G25">
+        <v>2264795</v>
+      </c>
+      <c r="H25">
+        <v>441.91</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>130482.5</v>
+      </c>
+      <c r="K25">
+        <v>2339575.6123658656</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>2018131.1497433598</v>
+      </c>
+      <c r="N25">
+        <v>2287672</v>
+      </c>
+      <c r="O25">
+        <v>246663.85025664023</v>
+      </c>
+      <c r="P25">
+        <v>2264795</v>
+      </c>
+      <c r="Q25">
+        <v>441.91121951219515</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>-1</v>
+      </c>
+      <c r="T25">
+        <v>54.05</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1016</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>3675209</v>
+      </c>
+      <c r="E26">
+        <v>1376311</v>
+      </c>
+      <c r="F26">
+        <v>1354.64</v>
+      </c>
+      <c r="G26">
+        <v>1383475</v>
+      </c>
+      <c r="H26">
+        <v>1361.69</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>25867.360000000001</v>
+      </c>
+      <c r="K26">
+        <v>1619895.1447673745</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1397330.7097637127</v>
+      </c>
+      <c r="N26">
+        <v>1383475</v>
+      </c>
+      <c r="O26">
+        <v>-13855.709763712715</v>
+      </c>
+      <c r="P26">
+        <v>1383475</v>
+      </c>
+      <c r="Q26">
+        <v>1361.6879921259842</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>7.05</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1059</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>3330594</v>
+      </c>
+      <c r="E27">
+        <v>1247258</v>
+      </c>
+      <c r="F27">
+        <v>1177.77</v>
+      </c>
+      <c r="G27">
+        <v>1222187</v>
+      </c>
+      <c r="H27">
+        <v>1154.0899999999999</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>26962.14</v>
+      </c>
+      <c r="K27">
+        <v>1468001.6972616657</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1266306.5632334824</v>
+      </c>
+      <c r="N27">
+        <v>1222187</v>
+      </c>
+      <c r="O27">
+        <v>-44119.563233482419</v>
+      </c>
+      <c r="P27">
+        <v>1222187</v>
+      </c>
+      <c r="Q27">
+        <v>1154.0953729933899</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>-23.67</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2393</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>-10901</v>
+      </c>
+      <c r="E28">
+        <v>60926</v>
+      </c>
+      <c r="F28">
+        <v>25.46</v>
+      </c>
+      <c r="G28">
+        <v>222306</v>
+      </c>
+      <c r="H28">
+        <v>92.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>60925.78</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60925.78</v>
+      </c>
+      <c r="N28">
+        <v>261537</v>
+      </c>
+      <c r="O28">
+        <v>161380.22</v>
+      </c>
+      <c r="P28">
+        <v>222306</v>
+      </c>
+      <c r="Q28">
+        <v>92.898453823652318</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>-15</v>
+      </c>
+      <c r="T28">
+        <v>67.44</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>16616</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>5843962</v>
+      </c>
+      <c r="E29">
+        <v>2188476</v>
+      </c>
+      <c r="F29">
+        <v>131.71</v>
+      </c>
+      <c r="G29">
+        <v>1584830</v>
+      </c>
+      <c r="H29">
+        <v>95.38</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>423043.36</v>
+      </c>
+      <c r="K29">
+        <v>2575800.6333803153</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>2221900.1883408991</v>
+      </c>
+      <c r="N29">
+        <v>1219100</v>
+      </c>
+      <c r="O29">
+        <v>-637070.18834089907</v>
+      </c>
+      <c r="P29">
+        <v>1584830</v>
+      </c>
+      <c r="Q29">
+        <v>95.379754453538752</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>30</v>
+      </c>
+      <c r="T29">
+        <v>-36.33</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>6154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>2138439</v>
+      </c>
+      <c r="E30">
+        <v>800813</v>
+      </c>
+      <c r="F30">
+        <v>130.13</v>
+      </c>
+      <c r="G30">
+        <v>757379</v>
+      </c>
+      <c r="H30">
+        <v>123.07</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>156680.84</v>
+      </c>
+      <c r="K30">
+        <v>942544.20727670169</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>813043.96176010778</v>
+      </c>
+      <c r="N30">
+        <v>688526</v>
+      </c>
+      <c r="O30">
+        <v>-55664.961760107777</v>
+      </c>
+      <c r="P30">
+        <v>757379</v>
+      </c>
+      <c r="Q30">
+        <v>123.07101072473188</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>-7.06</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>11897</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>11971323</v>
+      </c>
+      <c r="E31">
+        <v>4483081</v>
+      </c>
+      <c r="F31">
+        <v>376.82</v>
+      </c>
+      <c r="G31">
+        <v>4370595</v>
+      </c>
+      <c r="H31">
+        <v>367.37</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>302897.62</v>
+      </c>
+      <c r="K31">
+        <v>5276512.9831098039</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>4551549.9293783456</v>
+      </c>
+      <c r="N31">
+        <v>4370595</v>
+      </c>
+      <c r="O31">
+        <v>-180954.92937834561</v>
+      </c>
+      <c r="P31">
+        <v>4370595</v>
+      </c>
+      <c r="Q31">
+        <v>367.36950491720603</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>-9.4499999999999993</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>98493</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>-10387866</v>
+      </c>
+      <c r="E32">
+        <v>2507632</v>
+      </c>
+      <c r="F32">
+        <v>25.46</v>
+      </c>
+      <c r="G32">
+        <v>2507632</v>
+      </c>
+      <c r="H32">
+        <v>25.46</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2507631.7800000003</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2507631.7800000003</v>
+      </c>
+      <c r="N32">
+        <v>2422041</v>
+      </c>
+      <c r="O32">
+        <v>0.21999999973922968</v>
+      </c>
+      <c r="P32">
+        <v>2507632</v>
+      </c>
+      <c r="Q32">
+        <v>25.460002233661275</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>3.53</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>9496</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>11523581</v>
+      </c>
+      <c r="E33">
+        <v>4315408</v>
+      </c>
+      <c r="F33">
+        <v>454.44</v>
+      </c>
+      <c r="G33">
+        <v>4201180</v>
+      </c>
+      <c r="H33">
+        <v>442.42</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>241768.16</v>
+      </c>
+      <c r="K33">
+        <v>5079164.9977548392</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>4381316.4415274439</v>
+      </c>
+      <c r="N33">
+        <v>4072607</v>
+      </c>
+      <c r="O33">
+        <v>-180136.44152744394</v>
+      </c>
+      <c r="P33">
+        <v>4201180</v>
+      </c>
+      <c r="Q33">
+        <v>442.41575400168495</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>3.16</v>
+      </c>
+      <c r="T33">
+        <v>-12.02</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>69542</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>-25368494</v>
+      </c>
+      <c r="E34">
+        <v>1770539</v>
+      </c>
+      <c r="F34">
+        <v>25.46</v>
+      </c>
+      <c r="G34">
+        <v>1770539</v>
+      </c>
+      <c r="H34">
+        <v>25.46</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1770539.32</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1770539.32</v>
+      </c>
+      <c r="N34">
+        <v>1714031</v>
+      </c>
+      <c r="O34">
+        <v>-0.32000000006519258</v>
+      </c>
+      <c r="P34">
+        <v>1770539</v>
+      </c>
+      <c r="Q34">
+        <v>25.459995398464237</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>3.3</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>42297</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>3052395</v>
+      </c>
+      <c r="E35">
+        <v>1143076</v>
+      </c>
+      <c r="F35">
+        <v>27.02</v>
+      </c>
+      <c r="G35">
+        <v>1168369</v>
+      </c>
+      <c r="H35">
+        <v>27.62</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1076881.6200000001</v>
+      </c>
+      <c r="K35">
+        <v>1345381.9470980319</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1160534.0735259433</v>
+      </c>
+      <c r="N35">
+        <v>1168369</v>
+      </c>
+      <c r="O35">
+        <v>7834.9264740566723</v>
+      </c>
+      <c r="P35">
+        <v>1168369</v>
+      </c>
+      <c r="Q35">
+        <v>27.622975624748801</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0.6</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>27846</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>10307719</v>
+      </c>
+      <c r="E36">
+        <v>3860086</v>
+      </c>
+      <c r="F36">
+        <v>138.62</v>
+      </c>
+      <c r="G36">
+        <v>3757910</v>
+      </c>
+      <c r="H36">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>708959.16</v>
+      </c>
+      <c r="K36">
+        <v>4543258.3457774557</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>3919040.3338462948</v>
+      </c>
+      <c r="N36">
+        <v>3747077</v>
+      </c>
+      <c r="O36">
+        <v>-161130.33384629479</v>
+      </c>
+      <c r="P36">
+        <v>3757910</v>
+      </c>
+      <c r="Q36">
+        <v>134.95331465919702</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T36">
+        <v>-3.67</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>2897</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>5374140</v>
+      </c>
+      <c r="E37">
+        <v>2012535</v>
+      </c>
+      <c r="F37">
+        <v>694.7</v>
+      </c>
+      <c r="G37">
+        <v>1959264</v>
+      </c>
+      <c r="H37">
+        <v>676.31</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>73757.62</v>
+      </c>
+      <c r="K37">
+        <v>2368720.6069913679</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>2043271.7868751301</v>
+      </c>
+      <c r="N37">
+        <v>1905936</v>
+      </c>
+      <c r="O37">
+        <v>-84007.786875130143</v>
+      </c>
+      <c r="P37">
+        <v>1959264</v>
+      </c>
+      <c r="Q37">
+        <v>676.30790472903004</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>2.8</v>
+      </c>
+      <c r="T37">
+        <v>-18.39</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>22901</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>12126912</v>
+      </c>
+      <c r="E38">
+        <v>4541347</v>
+      </c>
+      <c r="F38">
+        <v>198.3</v>
+      </c>
+      <c r="G38">
+        <v>4421138</v>
+      </c>
+      <c r="H38">
+        <v>193.05</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>583059.46</v>
+      </c>
+      <c r="K38">
+        <v>5345090.8151947856</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>4610705.5550315874</v>
+      </c>
+      <c r="N38">
+        <v>4262245</v>
+      </c>
+      <c r="O38">
+        <v>-189567.55503158737</v>
+      </c>
+      <c r="P38">
+        <v>4421138</v>
+      </c>
+      <c r="Q38">
+        <v>193.05436443823413</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>3.73</v>
+      </c>
+      <c r="T38">
+        <v>-5.25</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>8928</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>6049300</v>
+      </c>
+      <c r="E39">
+        <v>2265372</v>
+      </c>
+      <c r="F39">
+        <v>253.74</v>
+      </c>
+      <c r="G39">
+        <v>2774887</v>
+      </c>
+      <c r="H39">
+        <v>310.81</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>227306.88</v>
+      </c>
+      <c r="K39">
+        <v>2666305.9704199894</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>2299970.603732639</v>
+      </c>
+      <c r="N39">
+        <v>2860708</v>
+      </c>
+      <c r="O39">
+        <v>474916.39626736101</v>
+      </c>
+      <c r="P39">
+        <v>2774887</v>
+      </c>
+      <c r="Q39">
+        <v>310.80723566308245</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>-3</v>
+      </c>
+      <c r="T39">
+        <v>57.07</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>4667</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>4417975</v>
+      </c>
+      <c r="E40">
+        <v>1654465</v>
+      </c>
+      <c r="F40">
+        <v>354.5</v>
+      </c>
+      <c r="G40">
+        <v>1723257</v>
+      </c>
+      <c r="H40">
+        <v>369.24</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>118821.82</v>
+      </c>
+      <c r="K40">
+        <v>1947278.7131843772</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1679733.6267048593</v>
+      </c>
+      <c r="N40">
+        <v>1723257</v>
+      </c>
+      <c r="O40">
+        <v>43523.373295140686</v>
+      </c>
+      <c r="P40">
+        <v>1723257</v>
+      </c>
+      <c r="Q40">
+        <v>369.24298264409686</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>14.74</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>39312</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41">
+        <v>-31850838</v>
+      </c>
+      <c r="E41">
+        <v>1000884</v>
+      </c>
+      <c r="F41">
+        <v>25.46</v>
+      </c>
+      <c r="G41">
+        <v>1000884</v>
+      </c>
+      <c r="H41">
+        <v>25.46</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1000883.52</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1000883.52</v>
+      </c>
+      <c r="N41">
+        <v>952223</v>
+      </c>
+      <c r="O41">
+        <v>0.47999999998137355</v>
+      </c>
+      <c r="P41">
+        <v>1000884</v>
+      </c>
+      <c r="Q41">
+        <v>25.460012210012209</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>180865</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>15203838</v>
+      </c>
+      <c r="E42">
+        <v>5693609</v>
+      </c>
+      <c r="F42">
+        <v>31.48</v>
+      </c>
+      <c r="G42">
+        <v>6722896</v>
+      </c>
+      <c r="H42">
+        <v>37.17</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>4604822.9000000004</v>
+      </c>
+      <c r="K42">
+        <v>6701285.112773099</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>5780566.423208179</v>
+      </c>
+      <c r="N42">
+        <v>6930820</v>
+      </c>
+      <c r="O42">
+        <v>942329.57679182105</v>
+      </c>
+      <c r="P42">
+        <v>6722896</v>
+      </c>
+      <c r="Q42">
+        <v>37.170795897492603</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>-3</v>
+      </c>
+      <c r="T42">
+        <v>5.69</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>889</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>3051692</v>
+      </c>
+      <c r="E43">
+        <v>1142813</v>
+      </c>
+      <c r="F43">
+        <v>1285.5</v>
+      </c>
+      <c r="G43">
+        <v>1112563</v>
+      </c>
+      <c r="H43">
+        <v>1251.48</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>22633.940000000002</v>
+      </c>
+      <c r="K43">
+        <v>1345072.0909002558</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1160266.7898180061</v>
+      </c>
+      <c r="N43">
+        <v>1111043</v>
+      </c>
+      <c r="O43">
+        <v>-47703.789818006102</v>
+      </c>
+      <c r="P43">
+        <v>1112563</v>
+      </c>
+      <c r="Q43">
+        <v>1251.4769403824521</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T43">
+        <v>-34.020000000000003</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>1683</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>3872386</v>
+      </c>
+      <c r="E44">
+        <v>1450150</v>
+      </c>
+      <c r="F44">
+        <v>861.65</v>
+      </c>
+      <c r="G44">
+        <v>1447261</v>
+      </c>
+      <c r="H44">
+        <v>859.93</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>42849.18</v>
+      </c>
+      <c r="K44">
+        <v>1706803.4171839356</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1472298.276875972</v>
+      </c>
+      <c r="N44">
+        <v>1447261</v>
+      </c>
+      <c r="O44">
+        <v>-25037.276875972049</v>
+      </c>
+      <c r="P44">
+        <v>1447261</v>
+      </c>
+      <c r="Q44">
+        <v>859.92929292929296</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>-1.72</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>107069</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>40577538</v>
+      </c>
+      <c r="E45">
+        <v>15195680</v>
+      </c>
+      <c r="F45">
+        <v>141.91999999999999</v>
+      </c>
+      <c r="G45">
+        <v>14793453</v>
+      </c>
+      <c r="H45">
+        <v>138.16999999999999</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>2725976.74</v>
+      </c>
+      <c r="K45">
+        <v>17885066.343931362</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>15427759.339401931</v>
+      </c>
+      <c r="N45">
+        <v>13862651</v>
+      </c>
+      <c r="O45">
+        <v>-634306.33940193057</v>
+      </c>
+      <c r="P45">
+        <v>14793453</v>
+      </c>
+      <c r="Q45">
+        <v>138.16747144364848</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>6.71</v>
+      </c>
+      <c r="T45">
+        <v>-3.75</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <v>138585</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>-19898968</v>
+      </c>
+      <c r="E46">
+        <v>3528374</v>
+      </c>
+      <c r="F46">
+        <v>25.46</v>
+      </c>
+      <c r="G46">
+        <v>3528374</v>
+      </c>
+      <c r="H46">
+        <v>25.46</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>3528374.1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>3528374.1</v>
+      </c>
+      <c r="N46">
+        <v>3403958</v>
+      </c>
+      <c r="O46">
+        <v>-0.10000000009313226</v>
+      </c>
+      <c r="P46">
+        <v>3528374</v>
+      </c>
+      <c r="Q46">
+        <v>25.459999278421186</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>3.66</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>14420</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>10627155</v>
+      </c>
+      <c r="E47">
+        <v>3979710</v>
+      </c>
+      <c r="F47">
+        <v>275.99</v>
+      </c>
+      <c r="G47">
+        <v>3747068</v>
+      </c>
+      <c r="H47">
+        <v>259.85000000000002</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>367133.2</v>
+      </c>
+      <c r="K47">
+        <v>4684053.8285551453</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>4040491.3132610936</v>
+      </c>
+      <c r="N47">
+        <v>3406426</v>
+      </c>
+      <c r="O47">
+        <v>-293423.31326109357</v>
+      </c>
+      <c r="P47">
+        <v>3747068</v>
+      </c>
+      <c r="Q47">
+        <v>259.85214979195564</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47">
+        <v>-16.14</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48">
+        <v>15018</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>6324034</v>
+      </c>
+      <c r="E48">
+        <v>2368256</v>
+      </c>
+      <c r="F48">
+        <v>157.69</v>
+      </c>
+      <c r="G48">
+        <v>2010123</v>
+      </c>
+      <c r="H48">
+        <v>133.85</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>382358.28</v>
+      </c>
+      <c r="K48">
+        <v>2787398.4777311441</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>2404425.6851215409</v>
+      </c>
+      <c r="N48">
+        <v>1827385</v>
+      </c>
+      <c r="O48">
+        <v>-394302.68512154091</v>
+      </c>
+      <c r="P48">
+        <v>2010123</v>
+      </c>
+      <c r="Q48">
+        <v>133.84758290051937</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>10</v>
+      </c>
+      <c r="T48">
+        <v>-23.84</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>17602</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>15027552</v>
+      </c>
+      <c r="E49">
+        <v>5627593</v>
+      </c>
+      <c r="F49">
+        <v>319.70999999999998</v>
+      </c>
+      <c r="G49">
+        <v>5478632</v>
+      </c>
+      <c r="H49">
+        <v>311.25</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>448146.92000000004</v>
+      </c>
+      <c r="K49">
+        <v>6623584.8145069433</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>5713541.7066542618</v>
+      </c>
+      <c r="N49">
+        <v>5018300</v>
+      </c>
+      <c r="O49">
+        <v>-234909.7066542618</v>
+      </c>
+      <c r="P49">
+        <v>5478632</v>
+      </c>
+      <c r="Q49">
+        <v>311.25053971139641</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>9.17</v>
+      </c>
+      <c r="T49">
+        <v>-8.4600000000000009</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>23137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>-9783105</v>
+      </c>
+      <c r="E50">
+        <v>589068</v>
+      </c>
+      <c r="F50">
+        <v>25.46</v>
+      </c>
+      <c r="G50">
+        <v>589068</v>
+      </c>
+      <c r="H50">
+        <v>25.46</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>589068.02</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>589068.02</v>
+      </c>
+      <c r="N50">
+        <v>569840</v>
+      </c>
+      <c r="O50">
+        <v>-2.0000000018626451E-2</v>
+      </c>
+      <c r="P50">
+        <v>589068</v>
+      </c>
+      <c r="Q50">
+        <v>25.459999135583697</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>3.37</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>10107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>7744780</v>
+      </c>
+      <c r="E51">
+        <v>2900304</v>
+      </c>
+      <c r="F51">
+        <v>286.95999999999998</v>
+      </c>
+      <c r="G51">
+        <v>2823533</v>
+      </c>
+      <c r="H51">
+        <v>279.36</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>257324.22</v>
+      </c>
+      <c r="K51">
+        <v>3413610.3604696947</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>2944599.5953873121</v>
+      </c>
+      <c r="N51">
+        <v>2804134</v>
+      </c>
+      <c r="O51">
+        <v>-121066.59538731212</v>
+      </c>
+      <c r="P51">
+        <v>2823533</v>
+      </c>
+      <c r="Q51">
+        <v>279.36410408627683</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0.69</v>
+      </c>
+      <c r="T51">
+        <v>-7.6</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>1603</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <v>-2098563</v>
+      </c>
+      <c r="E52">
+        <v>40812</v>
+      </c>
+      <c r="F52">
+        <v>25.46</v>
+      </c>
+      <c r="G52">
+        <v>40812</v>
+      </c>
+      <c r="H52">
+        <v>25.46</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>40812.380000000005</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>40812.380000000005</v>
+      </c>
+      <c r="N52">
+        <v>39666</v>
+      </c>
+      <c r="O52">
+        <v>-0.38000000000465661</v>
+      </c>
+      <c r="P52">
+        <v>40812</v>
+      </c>
+      <c r="Q52">
+        <v>25.459762944479102</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>2.89</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <v>4113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53">
+        <v>1835832</v>
+      </c>
+      <c r="E53">
+        <v>687492</v>
+      </c>
+      <c r="F53">
+        <v>167.15</v>
+      </c>
+      <c r="G53">
+        <v>484036</v>
+      </c>
+      <c r="H53">
+        <v>117.68</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>104716.98000000001</v>
+      </c>
+      <c r="K53">
+        <v>809166.32044832793</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>697991.44254569907</v>
+      </c>
+      <c r="N53">
+        <v>420901</v>
+      </c>
+      <c r="O53">
+        <v>-213955.44254569907</v>
+      </c>
+      <c r="P53">
+        <v>484036</v>
+      </c>
+      <c r="Q53">
+        <v>117.68441526866035</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>15</v>
+      </c>
+      <c r="T53">
+        <v>-49.47</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>149214</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>20096913</v>
+      </c>
+      <c r="E54">
+        <v>7525993</v>
+      </c>
+      <c r="F54">
+        <v>50.44</v>
+      </c>
+      <c r="G54">
+        <v>8358625</v>
+      </c>
+      <c r="H54">
+        <v>56.02</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>3798988.44</v>
+      </c>
+      <c r="K54">
+        <v>8857970.198024746</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>7640935.1703126505</v>
+      </c>
+      <c r="N54">
+        <v>8358625</v>
+      </c>
+      <c r="O54">
+        <v>717689.8296873495</v>
+      </c>
+      <c r="P54">
+        <v>8358625</v>
+      </c>
+      <c r="Q54">
+        <v>56.017699411583365</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>5.58</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>2012</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>3212197</v>
+      </c>
+      <c r="E55">
+        <v>1202920</v>
+      </c>
+      <c r="F55">
+        <v>597.87</v>
+      </c>
+      <c r="G55">
+        <v>1311559</v>
+      </c>
+      <c r="H55">
+        <v>651.87</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>51225.520000000004</v>
+      </c>
+      <c r="K55">
+        <v>1415816.7125560276</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1221291.5004047034</v>
+      </c>
+      <c r="N55">
+        <v>1311559</v>
+      </c>
+      <c r="O55">
+        <v>90267.499595296569</v>
+      </c>
+      <c r="P55">
+        <v>1311559</v>
+      </c>
+      <c r="Q55">
+        <v>651.86829025844929</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>54</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56">
+        <v>2278</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>4715969</v>
+      </c>
+      <c r="E56">
+        <v>1766060</v>
+      </c>
+      <c r="F56">
+        <v>775.27</v>
+      </c>
+      <c r="G56">
+        <v>1784370</v>
+      </c>
+      <c r="H56">
+        <v>783.31</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>57997.880000000005</v>
+      </c>
+      <c r="K56">
+        <v>2078623.3615485406</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1793032.2629253648</v>
+      </c>
+      <c r="N56">
+        <v>1784370</v>
+      </c>
+      <c r="O56">
+        <v>-8662.2629253647756</v>
+      </c>
+      <c r="P56">
+        <v>1784370</v>
+      </c>
+      <c r="Q56">
+        <v>783.3055311676909</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57">
+        <v>7066</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <v>7356750</v>
+      </c>
+      <c r="E57">
+        <v>2754993</v>
+      </c>
+      <c r="F57">
+        <v>389.89</v>
+      </c>
+      <c r="G57">
+        <v>3213383</v>
+      </c>
+      <c r="H57">
+        <v>454.77</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>179900.36000000002</v>
+      </c>
+      <c r="K57">
+        <v>3242581.1991283712</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>2797068.8739209645</v>
+      </c>
+      <c r="N57">
+        <v>3245841</v>
+      </c>
+      <c r="O57">
+        <v>416314.12607903546</v>
+      </c>
+      <c r="P57">
+        <v>3213383</v>
+      </c>
+      <c r="Q57">
+        <v>454.76691197282764</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>-1</v>
+      </c>
+      <c r="T57">
+        <v>64.88</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58">
+        <v>103685</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>1742337</v>
+      </c>
+      <c r="E58">
+        <v>2639820</v>
+      </c>
+      <c r="F58">
+        <v>25.46</v>
+      </c>
+      <c r="G58">
+        <v>2639820</v>
+      </c>
+      <c r="H58">
+        <v>25.46</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2639820.1</v>
+      </c>
+      <c r="K58">
+        <v>767957.20919505612</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>662444.23020774557</v>
+      </c>
+      <c r="N58">
+        <v>2572588</v>
+      </c>
+      <c r="O58">
+        <v>1977375.7697922545</v>
+      </c>
+      <c r="P58">
+        <v>2639820</v>
+      </c>
+      <c r="Q58">
+        <v>25.459999035540338</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>2.61</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>2906</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>1104617</v>
+      </c>
+      <c r="E59">
+        <v>413662</v>
+      </c>
+      <c r="F59">
+        <v>142.35</v>
+      </c>
+      <c r="G59">
+        <v>481306</v>
+      </c>
+      <c r="H59">
+        <v>165.62</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>73986.760000000009</v>
+      </c>
+      <c r="K59">
+        <v>486874.00230231881</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>419980.26687109849</v>
+      </c>
+      <c r="N59">
+        <v>486168</v>
+      </c>
+      <c r="O59">
+        <v>61325.733128901513</v>
+      </c>
+      <c r="P59">
+        <v>481306</v>
+      </c>
+      <c r="Q59">
+        <v>165.62491397109429</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>-1</v>
+      </c>
+      <c r="T59">
+        <v>23.27</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>39929</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>-34776759</v>
+      </c>
+      <c r="E60">
+        <v>1016592</v>
+      </c>
+      <c r="F60">
+        <v>25.46</v>
+      </c>
+      <c r="G60">
+        <v>1016592</v>
+      </c>
+      <c r="H60">
+        <v>25.46</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1016592.3400000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1016592.3400000001</v>
+      </c>
+      <c r="N60">
+        <v>979386</v>
+      </c>
+      <c r="O60">
+        <v>-0.34000000008381903</v>
+      </c>
+      <c r="P60">
+        <v>1016592</v>
+      </c>
+      <c r="Q60">
+        <v>25.459991484885673</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>3.8</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <v>16869</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>667738</v>
+      </c>
+      <c r="E61">
+        <v>250058</v>
+      </c>
+      <c r="F61">
+        <v>14.82</v>
+      </c>
+      <c r="G61">
+        <v>429485</v>
+      </c>
+      <c r="H61">
+        <v>25.46</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>429484.74</v>
+      </c>
+      <c r="K61">
+        <v>294314.02246149187</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>253876.93964512006</v>
+      </c>
+      <c r="N61">
+        <v>418967</v>
+      </c>
+      <c r="O61">
+        <v>175608.06035487994</v>
+      </c>
+      <c r="P61">
+        <v>429485</v>
+      </c>
+      <c r="Q61">
+        <v>25.460015412887547</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="T61">
+        <v>10.64</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62">
+        <v>6958</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>6243472</v>
+      </c>
+      <c r="E62">
+        <v>2338087</v>
+      </c>
+      <c r="F62">
+        <v>336.03</v>
+      </c>
+      <c r="G62">
+        <v>2276198</v>
+      </c>
+      <c r="H62">
+        <v>327.13</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>177150.68</v>
+      </c>
+      <c r="K62">
+        <v>2751889.7508389452</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>2373795.6565599036</v>
+      </c>
+      <c r="N62">
+        <v>2235918</v>
+      </c>
+      <c r="O62">
+        <v>-97597.65655990364</v>
+      </c>
+      <c r="P62">
+        <v>2276198</v>
+      </c>
+      <c r="Q62">
+        <v>327.13394653636101</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>1.8</v>
+      </c>
+      <c r="T62">
+        <v>-8.9</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63">
+        <v>8420</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>-8600802</v>
+      </c>
+      <c r="E63">
+        <v>214373</v>
+      </c>
+      <c r="F63">
+        <v>25.46</v>
+      </c>
+      <c r="G63">
+        <v>214373</v>
+      </c>
+      <c r="H63">
+        <v>25.46</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>214373.2</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>214373.2</v>
+      </c>
+      <c r="N63">
+        <v>204948</v>
+      </c>
+      <c r="O63">
+        <v>-0.20000000001164153</v>
+      </c>
+      <c r="P63">
+        <v>214373</v>
+      </c>
+      <c r="Q63">
+        <v>25.45997624703088</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64">
+        <v>12257</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>7268487</v>
+      </c>
+      <c r="E64">
+        <v>2721940</v>
+      </c>
+      <c r="F64">
+        <v>222.07</v>
+      </c>
+      <c r="G64">
+        <v>3199650</v>
+      </c>
+      <c r="H64">
+        <v>261.05</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>312063.22000000003</v>
+      </c>
+      <c r="K64">
+        <v>3203678.1584679349</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>2763510.8911134903</v>
+      </c>
+      <c r="N64">
+        <v>3298608</v>
+      </c>
+      <c r="O64">
+        <v>436139.10888650967</v>
+      </c>
+      <c r="P64">
+        <v>3199650</v>
+      </c>
+      <c r="Q64">
+        <v>261.04674879660604</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>-3</v>
+      </c>
+      <c r="T64">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65">
+        <v>64519</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65">
+        <v>-20788774</v>
+      </c>
+      <c r="E65">
+        <v>1642654</v>
+      </c>
+      <c r="F65">
+        <v>25.46</v>
+      </c>
+      <c r="G65">
+        <v>1642654</v>
+      </c>
+      <c r="H65">
+        <v>25.46</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1642653.74</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1642653.74</v>
+      </c>
+      <c r="N65">
+        <v>1581275</v>
+      </c>
+      <c r="O65">
+        <v>0.26000000000931323</v>
+      </c>
+      <c r="P65">
+        <v>1642654</v>
+      </c>
+      <c r="Q65">
+        <v>25.460004029820674</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>3.88</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>21902</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>15713243</v>
+      </c>
+      <c r="E66">
+        <v>5884374</v>
+      </c>
+      <c r="F66">
+        <v>268.67</v>
+      </c>
+      <c r="G66">
+        <v>5728616</v>
+      </c>
+      <c r="H66">
+        <v>261.56</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>557624.92000000004</v>
+      </c>
+      <c r="K66">
+        <v>6925811.8502240097</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>5974244.4562689345</v>
+      </c>
+      <c r="N66">
+        <v>5254023</v>
+      </c>
+      <c r="O66">
+        <v>-245628.45626893453</v>
+      </c>
+      <c r="P66">
+        <v>5728616</v>
+      </c>
+      <c r="Q66">
+        <v>261.55675280796277</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="T66">
+        <v>-7.11</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67">
+        <v>1161</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>4248089</v>
+      </c>
+      <c r="E67">
+        <v>1590845</v>
+      </c>
+      <c r="F67">
+        <v>1370.24</v>
+      </c>
+      <c r="G67">
+        <v>1548736</v>
+      </c>
+      <c r="H67">
+        <v>1333.97</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>29559.06</v>
+      </c>
+      <c r="K67">
+        <v>1872399.2963773466</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1615142.2184451064</v>
+      </c>
+      <c r="N67">
+        <v>1522154</v>
+      </c>
+      <c r="O67">
+        <v>-66406.218445106409</v>
+      </c>
+      <c r="P67">
+        <v>1548736</v>
+      </c>
+      <c r="Q67">
+        <v>1333.9672695951765</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>1.75</v>
+      </c>
+      <c r="T67">
+        <v>-36.270000000000003</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68">
+        <v>6100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>289390</v>
+      </c>
+      <c r="E68">
+        <v>108372</v>
+      </c>
+      <c r="F68">
+        <v>17.77</v>
+      </c>
+      <c r="G68">
+        <v>227235</v>
+      </c>
+      <c r="H68">
+        <v>37.25</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>155306</v>
+      </c>
+      <c r="K68">
+        <v>127552.32585255166</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>110027.35738253822</v>
+      </c>
+      <c r="N68">
+        <v>239195</v>
+      </c>
+      <c r="O68">
+        <v>117207.64261746178</v>
+      </c>
+      <c r="P68">
+        <v>227235</v>
+      </c>
+      <c r="Q68">
+        <v>37.251639344262294</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>-5</v>
+      </c>
+      <c r="T68">
+        <v>19.48</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69">
+        <v>12040</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>3826375</v>
+      </c>
+      <c r="E69">
+        <v>1432920</v>
+      </c>
+      <c r="F69">
+        <v>119.01</v>
+      </c>
+      <c r="G69">
+        <v>1260624</v>
+      </c>
+      <c r="H69">
+        <v>104.7</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>306538.40000000002</v>
+      </c>
+      <c r="K69">
+        <v>1686523.4833064629</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1454804.6912630347</v>
+      </c>
+      <c r="N69">
+        <v>1146020</v>
+      </c>
+      <c r="O69">
+        <v>-194180.69126303471</v>
+      </c>
+      <c r="P69">
+        <v>1260624</v>
+      </c>
+      <c r="Q69">
+        <v>104.70299003322259</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>10</v>
+      </c>
+      <c r="T69">
+        <v>-14.31</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
